--- a/results/04-2023/contributions-comparison-04-2023.xlsx
+++ b/results/04-2023/contributions-comparison-04-2023.xlsx
@@ -1095,13 +1095,13 @@
         <v>0.0054</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0105</v>
+        <v>-0.0335</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0215</v>
+        <v>-0.0665</v>
       </c>
       <c r="T13" t="n">
-        <v>-5.4038</v>
+        <v>-5.4026</v>
       </c>
     </row>
     <row r="14">
@@ -1905,13 +1905,13 @@
         <v>0.0354</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1756</v>
+        <v>0.1316</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.0445</v>
+        <v>-0.1326</v>
       </c>
       <c r="T31" t="n">
-        <v>-72.6398</v>
+        <v>-72.6385</v>
       </c>
     </row>
     <row r="32">
@@ -3615,13 +3615,13 @@
         <v>-0.0212</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.0203</v>
+        <v>-0.0643</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.0195</v>
+        <v>-0.1075</v>
       </c>
       <c r="T69" t="n">
-        <v>-0.0006</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="70">
@@ -4425,13 +4425,13 @@
         <v>0.1485</v>
       </c>
       <c r="R87" t="n">
-        <v>0.147</v>
+        <v>0.103</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.051</v>
+        <v>-0.139</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.4966</v>
+        <v>-0.4953</v>
       </c>
     </row>
     <row r="88">

--- a/results/04-2023/contributions-comparison-04-2023.xlsx
+++ b/results/04-2023/contributions-comparison-04-2023.xlsx
@@ -897,31 +897,31 @@
         <v>0.2406</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7965</v>
+        <v>-0.3802</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0543</v>
+        <v>-0.1156</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0468</v>
+        <v>-0.0439</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.2968</v>
+        <v>-0.2949</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4273</v>
+        <v>-0.4257</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0633</v>
+        <v>-0.0613</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0522</v>
+        <v>-0.0515</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.3905</v>
+        <v>-0.3876</v>
       </c>
       <c r="T9" t="n">
-        <v>-34.1547</v>
+        <v>-32.9216</v>
       </c>
     </row>
     <row r="10">
@@ -1077,31 +1077,31 @@
         <v>-0.0208</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0183</v>
+        <v>0.0179</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0037</v>
+        <v>0.0029</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0019</v>
+        <v>-0.0022</v>
       </c>
       <c r="O13" t="n">
         <v>-0.0845</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0121</v>
+        <v>-0.0113</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0054</v>
+        <v>0.007</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0335</v>
+        <v>-0.0111</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0665</v>
+        <v>-0.0244</v>
       </c>
       <c r="T13" t="n">
-        <v>-5.4026</v>
+        <v>-5.4036</v>
       </c>
     </row>
     <row r="14">
@@ -1167,31 +1167,31 @@
         <v>0.1494</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2862</v>
+        <v>0.3134</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1881</v>
+        <v>0.2152</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2507</v>
+        <v>0.2641</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5235</v>
+        <v>0.5368</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5152</v>
+        <v>0.5283</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5439</v>
+        <v>0.5569</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4964</v>
+        <v>0.5092</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2581</v>
+        <v>0.2708</v>
       </c>
       <c r="T15" t="n">
-        <v>7.6778</v>
+        <v>7.6505</v>
       </c>
     </row>
     <row r="16">
@@ -1527,31 +1527,31 @@
         <v>0.1206</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3406</v>
+        <v>0.225</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3823</v>
+        <v>0.2688</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0976</v>
+        <v>-0.0137</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0086</v>
+        <v>-0.1003</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0902</v>
+        <v>-0.0852</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.0749</v>
+        <v>-0.0702</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0395</v>
+        <v>-0.0351</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.0772</v>
+        <v>-0.0729</v>
       </c>
       <c r="T23" t="n">
-        <v>-6.8028</v>
+        <v>-6.6924</v>
       </c>
     </row>
     <row r="24">
@@ -1887,31 +1887,31 @@
         <v>-0.2404</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8901</v>
+        <v>-1.2456</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0217</v>
+        <v>-0.1857</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0588</v>
+        <v>-0.1632</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.2646</v>
+        <v>-0.3603</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0008</v>
+        <v>0.0317</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0354</v>
+        <v>0.0696</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1316</v>
+        <v>0.1879</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.1326</v>
+        <v>-0.0504</v>
       </c>
       <c r="T31" t="n">
-        <v>-72.6385</v>
+        <v>-72.2455</v>
       </c>
     </row>
     <row r="32">
@@ -2067,31 +2067,31 @@
         <v>-0.139</v>
       </c>
       <c r="L35" t="n">
-        <v>0.8155</v>
+        <v>-0.1144</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.1213</v>
+        <v>-0.1186</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.071</v>
+        <v>-0.0684</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.2617</v>
+        <v>-0.2598</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.3737</v>
+        <v>-0.3725</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0142</v>
+        <v>-0.0132</v>
       </c>
       <c r="R35" t="n">
-        <v>0.0124</v>
+        <v>0.0133</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3171</v>
+        <v>-0.3159</v>
       </c>
       <c r="T35" t="n">
-        <v>-7.7689</v>
+        <v>-6.8434</v>
       </c>
     </row>
     <row r="36">
@@ -2427,31 +2427,31 @@
         <v>0.2551</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.8619</v>
+        <v>0.0681</v>
       </c>
       <c r="M43" t="n">
-        <v>0.1258</v>
+        <v>0.123</v>
       </c>
       <c r="N43" t="n">
-        <v>-0.0077</v>
+        <v>-0.0103</v>
       </c>
       <c r="O43" t="n">
-        <v>0.202</v>
+        <v>0.2002</v>
       </c>
       <c r="P43" t="n">
-        <v>0.2928</v>
+        <v>0.2917</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0689</v>
+        <v>-0.0699</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.0989</v>
+        <v>-0.0998</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2283</v>
+        <v>0.2271</v>
       </c>
       <c r="T43" t="n">
-        <v>-36.5076</v>
+        <v>-37.433</v>
       </c>
     </row>
     <row r="44">
@@ -2607,31 +2607,31 @@
         <v>0.0083</v>
       </c>
       <c r="L47" t="n">
-        <v>0.015</v>
+        <v>0.0149</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1235</v>
+        <v>0.1232</v>
       </c>
       <c r="N47" t="n">
-        <v>0.0767</v>
+        <v>0.0766</v>
       </c>
       <c r="O47" t="n">
         <v>0.0873</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.0185</v>
+        <v>-0.0182</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.0678</v>
+        <v>-0.0672</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.0544</v>
+        <v>-0.0456</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.0526</v>
+        <v>-0.036</v>
       </c>
       <c r="T47" t="n">
-        <v>-0.7102</v>
+        <v>-0.7106</v>
       </c>
     </row>
     <row r="48">
@@ -3057,31 +3057,31 @@
         <v>-0.0268</v>
       </c>
       <c r="L57" t="n">
-        <v>0.0066</v>
+        <v>-0.0131</v>
       </c>
       <c r="M57" t="n">
-        <v>0.0185</v>
+        <v>0.006</v>
       </c>
       <c r="N57" t="n">
-        <v>0.027</v>
+        <v>0.0207</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0221</v>
+        <v>0.0219</v>
       </c>
       <c r="P57" t="n">
-        <v>0.013</v>
+        <v>0.0242</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.0052</v>
+        <v>0.0184</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0006</v>
+        <v>0.0086</v>
       </c>
       <c r="S57" t="n">
-        <v>-0.0026</v>
+        <v>0.0021</v>
       </c>
       <c r="T57" t="n">
-        <v>-0.0921</v>
+        <v>-0.0885</v>
       </c>
     </row>
     <row r="58">
@@ -3417,31 +3417,31 @@
         <v>0.7084</v>
       </c>
       <c r="L65" t="n">
-        <v>0.8467</v>
+        <v>-0.33</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.0018</v>
+        <v>-0.0631</v>
       </c>
       <c r="N65" t="n">
-        <v>-0.0024</v>
+        <v>0.0005</v>
       </c>
       <c r="O65" t="n">
-        <v>-0.0007</v>
+        <v>0.0012</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0007</v>
+        <v>0.0022</v>
       </c>
       <c r="Q65" t="n">
-        <v>-0.0015</v>
+        <v>0.0005</v>
       </c>
       <c r="R65" t="n">
-        <v>-0.0018</v>
+        <v>-0.0011</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="T65" t="n">
-        <v>-1.304</v>
+        <v>-0.0709</v>
       </c>
     </row>
     <row r="66">
@@ -3597,31 +3597,31 @@
         <v>0.0576</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0167</v>
+        <v>0.0163</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0457</v>
+        <v>0.0449</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0395</v>
+        <v>0.0392</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.0217</v>
+        <v>-0.0216</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0119</v>
+        <v>0.0127</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.0212</v>
+        <v>-0.0197</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.0643</v>
+        <v>-0.042</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.1075</v>
+        <v>-0.0654</v>
       </c>
       <c r="T69" t="n">
-        <v>0.0007</v>
+        <v>-0.0003</v>
       </c>
     </row>
     <row r="70">
@@ -3687,31 +3687,31 @@
         <v>0.2942</v>
       </c>
       <c r="L71" t="n">
-        <v>0.2784</v>
+        <v>0.3056</v>
       </c>
       <c r="M71" t="n">
-        <v>0.1256</v>
+        <v>0.1527</v>
       </c>
       <c r="N71" t="n">
-        <v>0.1255</v>
+        <v>0.139</v>
       </c>
       <c r="O71" t="n">
-        <v>0.1212</v>
+        <v>0.1345</v>
       </c>
       <c r="P71" t="n">
-        <v>0.118</v>
+        <v>0.1312</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.1145</v>
+        <v>0.1275</v>
       </c>
       <c r="R71" t="n">
-        <v>0.1141</v>
+        <v>0.127</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.0213</v>
+        <v>-0.0085</v>
       </c>
       <c r="T71" t="n">
-        <v>-0.3111</v>
+        <v>-0.3384</v>
       </c>
     </row>
     <row r="72">
@@ -4047,31 +4047,31 @@
         <v>0.1027</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2148</v>
+        <v>0.0992</v>
       </c>
       <c r="M79" t="n">
-        <v>0.2104</v>
+        <v>0.0969</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2079</v>
+        <v>0.0967</v>
       </c>
       <c r="O79" t="n">
-        <v>0.1043</v>
+        <v>-0.0046</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.0094</v>
+        <v>-0.0044</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.0088</v>
+        <v>-0.0042</v>
       </c>
       <c r="R79" t="n">
-        <v>-0.0086</v>
+        <v>-0.0042</v>
       </c>
       <c r="S79" t="n">
-        <v>-0.008</v>
+        <v>-0.0037</v>
       </c>
       <c r="T79" t="n">
-        <v>-0.1712</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="80">
@@ -4407,31 +4407,31 @@
         <v>1.219</v>
       </c>
       <c r="L87" t="n">
-        <v>0.6706</v>
+        <v>0.3152</v>
       </c>
       <c r="M87" t="n">
-        <v>0.4358</v>
+        <v>0.2717</v>
       </c>
       <c r="N87" t="n">
-        <v>0.4236</v>
+        <v>0.3192</v>
       </c>
       <c r="O87" t="n">
-        <v>0.2777</v>
+        <v>0.182</v>
       </c>
       <c r="P87" t="n">
-        <v>0.1547</v>
+        <v>0.1856</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.1485</v>
+        <v>0.1827</v>
       </c>
       <c r="R87" t="n">
-        <v>0.103</v>
+        <v>0.1593</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.139</v>
+        <v>-0.0568</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.4953</v>
+        <v>-0.1023</v>
       </c>
     </row>
     <row r="88">
@@ -4587,31 +4587,31 @@
         <v>0.3164</v>
       </c>
       <c r="L91" t="n">
-        <v>0.8469</v>
+        <v>-0.083</v>
       </c>
       <c r="M91" t="n">
-        <v>-0.0024</v>
+        <v>0.0003</v>
       </c>
       <c r="N91" t="n">
-        <v>-0.0026</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.0004</v>
+        <v>0.0014</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0012</v>
+        <v>0.0023</v>
       </c>
       <c r="Q91" t="n">
-        <v>-0.001</v>
+        <v>-0.0001</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.0012</v>
+        <v>-0.0003</v>
       </c>
       <c r="S91" t="n">
-        <v>0.0007</v>
+        <v>0.0019</v>
       </c>
       <c r="T91" t="n">
-        <v>-1.0514</v>
+        <v>-0.1259</v>
       </c>
     </row>
     <row r="92">
@@ -4947,31 +4947,31 @@
         <v>-0.0687</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.8465</v>
+        <v>0.0834</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0024</v>
+        <v>-0.0003</v>
       </c>
       <c r="N99" t="n">
-        <v>0.0033</v>
+        <v>0.0007</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0009</v>
+        <v>-0.0009</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.0005</v>
+        <v>-0.0017</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.0017</v>
+        <v>0.0008</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0019</v>
+        <v>0.001</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>-0.0012</v>
       </c>
       <c r="T99" t="n">
-        <v>1.4204</v>
+        <v>0.4949</v>
       </c>
     </row>
     <row r="100">
@@ -5127,31 +5127,31 @@
         <v>-0.0248</v>
       </c>
       <c r="L103" t="n">
-        <v>0.0095</v>
+        <v>0.0093</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.0264</v>
+        <v>-0.0267</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.027</v>
+        <v>-0.0272</v>
       </c>
       <c r="O103" t="n">
         <v>-0.0038</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.0372</v>
+        <v>-0.0369</v>
       </c>
       <c r="Q103" t="n">
-        <v>-0.0038</v>
+        <v>-0.0032</v>
       </c>
       <c r="R103" t="n">
-        <v>-0.0036</v>
+        <v>0.0052</v>
       </c>
       <c r="S103" t="n">
-        <v>-0.0035</v>
+        <v>0.0132</v>
       </c>
       <c r="T103" t="n">
-        <v>0.0328</v>
+        <v>0.0324</v>
       </c>
     </row>
     <row r="104">
@@ -5577,31 +5577,31 @@
         <v>0.0008</v>
       </c>
       <c r="L113" t="n">
-        <v>0.0128</v>
+        <v>-0.0069</v>
       </c>
       <c r="M113" t="n">
-        <v>0.0114</v>
+        <v>-0.001</v>
       </c>
       <c r="N113" t="n">
-        <v>0.011</v>
+        <v>0.0047</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0098</v>
+        <v>0.0096</v>
       </c>
       <c r="P113" t="n">
-        <v>0.0055</v>
+        <v>0.0167</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.0027</v>
+        <v>0.0159</v>
       </c>
       <c r="R113" t="n">
-        <v>0.0022</v>
+        <v>0.0102</v>
       </c>
       <c r="S113" t="n">
-        <v>0.0013</v>
+        <v>0.0061</v>
       </c>
       <c r="T113" t="n">
-        <v>-0.0126</v>
+        <v>-0.009</v>
       </c>
     </row>
     <row r="114">
